--- a/biology/Médecine/Muscle_subclavier/Muscle_subclavier.xlsx
+++ b/biology/Médecine/Muscle_subclavier/Muscle_subclavier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle subclavier ancien muscle sous-clavier (musculus subclavius en latin) est un muscle du plan profond de la loge antérieure de l'épaule.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle subclavier s'attache sur la face supérieure de la première côte et du premier cartilage costal.
 </t>
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle subclavier est de forme cylindrique, passe derrière la clavicule. Il est oblique en haut (très légèrement), en arrière, et en dehors.
 Il participe avec les muscles grand pectoral et petit pectoral à la paroi antérieure de la fosse axillaire.
@@ -574,7 +590,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle subclavier se termine sur le tiers externe de la face inférieure de la clavicule au niveau du sillon du muscle subclavier.
 </t>
@@ -605,7 +623,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par le nerf subclavier, branche collatérale issue du plexus brachial (racines cinquième et sixième nerfs cervicaux (C5, C6)).
 </t>
@@ -636,7 +656,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est vascularisé par une branche de l'artère thoraco-acromiale
 </t>
@@ -667,7 +689,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec un point fixe sternal, il abaisse la clavicule et par conséquent participe à l'abaissement du moignon de l'épaule.
 Avec un point fixe claviculaire, il élève la 1re côte et est donc muscle inspirateur accessoire.
